--- a/Zero.Extension.Runtime.Ambient.DB/src/main/resources/plugins/zero-extension-runtime-ambient/data/X_MENU/APP-zero.ssm.bg.xlsx
+++ b/Zero.Extension.Runtime.Ambient.DB/src/main/resources/plugins/zero-extension-runtime-ambient/data/X_MENU/APP-zero.ssm.bg.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11008"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10609"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lang/zero-cloud/web-app/workshop/zero-ws/zero-extension/zero-ambient/src/main/resources/plugin/ambient/oob/menu/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lang/zero-cloud/web-app/workshop/zero-ws/zero-plugins-extension/Zero.Extension.Runtime.Ambient.DB/src/main/resources/plugins/zero-extension-runtime-ambient/data/X_MENU/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6072B107-629C-E447-BC7E-956EAF997673}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C87ED8F-815D-0F4D-B48F-B0DDDC9372A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-53180" yWindow="480" windowWidth="38400" windowHeight="18080" tabRatio="591" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-52900" yWindow="4640" windowWidth="38400" windowHeight="18080" tabRatio="591" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DATA-MENU" sheetId="5" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="40">
   <si>
     <t>{TABLE}</t>
   </si>
@@ -98,9 +98,6 @@
   </si>
   <si>
     <t>1aa58879-1125-429a-b485-bfbbcc55ebde</t>
-  </si>
-  <si>
-    <t>全局配置</t>
   </si>
   <si>
     <t>tool</t>
@@ -132,24 +129,55 @@
   </si>
   <si>
     <t>zero.ssm.bg.job</t>
+  </si>
+  <si>
+    <t>、</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>98ac2e1a-4f36-4cc0-b2dc-072dbf0ce218</t>
+  </si>
+  <si>
+    <t>SIDE-MENU</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>zero.ssm.bg.parameter</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>应用设置</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>全局参数</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>sliders</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>/acme/modulat?bag=SSM</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="16"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -157,7 +185,7 @@
     <font>
       <sz val="16"/>
       <color rgb="FF0070C0"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -165,7 +193,7 @@
     <font>
       <sz val="16"/>
       <color rgb="FFC00000"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -173,7 +201,7 @@
     <font>
       <sz val="16"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -181,14 +209,14 @@
     <font>
       <sz val="16"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -636,16 +664,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:J7"/>
+  <dimension ref="A2:J12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:XFD8"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="21"/>
   <cols>
     <col min="1" max="1" width="55.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="13.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="34.1640625" style="2" customWidth="1"/>
     <col min="4" max="4" width="17.83203125" style="1" customWidth="1"/>
     <col min="5" max="5" width="12.6640625" style="1" customWidth="1"/>
@@ -658,7 +686,7 @@
     <col min="12" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -676,7 +704,7 @@
       <c r="I2" s="18"/>
       <c r="J2" s="18"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10">
       <c r="A3" s="6" t="s">
         <v>3</v>
       </c>
@@ -701,7 +729,7 @@
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10">
       <c r="A4" s="8" t="s">
         <v>10</v>
       </c>
@@ -726,7 +754,7 @@
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10">
       <c r="A5" s="10" t="s">
         <v>19</v>
       </c>
@@ -734,10 +762,10 @@
         <v>17</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E5" s="11" t="s">
         <v>20</v>
@@ -749,7 +777,7 @@
       <c r="H5" s="12"/>
       <c r="I5" s="14"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10">
       <c r="A6" s="10" t="s">
         <v>21</v>
       </c>
@@ -757,43 +785,71 @@
         <v>17</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D6" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="11" t="s">
+      <c r="F6" s="15" t="s">
         <v>23</v>
-      </c>
-      <c r="F6" s="15" t="s">
-        <v>24</v>
       </c>
       <c r="G6" s="12"/>
       <c r="H6" s="12"/>
       <c r="I6" s="14"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10">
       <c r="A7" s="10" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="F7" s="17" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="G7" s="12"/>
       <c r="H7" s="12"/>
       <c r="I7" s="14"/>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="14"/>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="E12" s="1" t="s">
+        <v>32</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
